--- a/坐标/监测站坐标.xlsx
+++ b/坐标/监测站坐标.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\寻常鹿\Desktop\MODIS\坐标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="326">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1321,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1351,87 +1351,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>119.52589999999999</v>
+        <v>116.366</v>
       </c>
       <c r="E2">
-        <v>39.828299999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3">
-        <v>119.7624</v>
-      </c>
-      <c r="E3">
-        <v>40.018099999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4">
-        <v>119.6023</v>
-      </c>
-      <c r="E4">
-        <v>39.956699999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5">
-        <v>119.607</v>
-      </c>
-      <c r="E5">
-        <v>39.9358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6">
-        <v>119.5369</v>
-      </c>
-      <c r="E6">
-        <v>39.941899999999997</v>
+        <v>39.8673</v>
       </c>
     </row>
   </sheetData>
@@ -3671,7 +3603,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="A12:E13"/>
+      <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标.xlsx
+++ b/坐标/监测站坐标.xlsx
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
-    <sheet name="河北" sheetId="4" r:id="rId2"/>
-    <sheet name="山东" sheetId="5" r:id="rId3"/>
-    <sheet name="北京" sheetId="2" r:id="rId4"/>
+    <sheet name="北京" sheetId="2" r:id="rId2"/>
+    <sheet name="河北" sheetId="4" r:id="rId3"/>
+    <sheet name="山东" sheetId="5" r:id="rId4"/>
     <sheet name="天津" sheetId="3" r:id="rId5"/>
     <sheet name="汇总" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="326">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1321,7 +1321,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
@@ -1329,7 +1329,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.5"/>
+    <col min="1" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,19 +1353,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="D2">
-        <v>116.366</v>
+        <v>117.9384</v>
       </c>
       <c r="E2">
-        <v>39.8673</v>
+        <v>41.011200000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3">
+        <v>117.23699999999999</v>
+      </c>
+      <c r="E3">
+        <v>39.108199999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1394,252 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>116.366</v>
+      </c>
+      <c r="E2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>116.17</v>
+      </c>
+      <c r="E3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4">
+        <v>116.434</v>
+      </c>
+      <c r="E4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5">
+        <v>116.434</v>
+      </c>
+      <c r="E5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6">
+        <v>116.473</v>
+      </c>
+      <c r="E6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7">
+        <v>116.361</v>
+      </c>
+      <c r="E7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>116.315</v>
+      </c>
+      <c r="E8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>116.72</v>
+      </c>
+      <c r="E9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="E10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11">
+        <v>116.23</v>
+      </c>
+      <c r="E11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>116.407</v>
+      </c>
+      <c r="E12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="E13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2304,12 +2565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:E75"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A66" sqref="A1:E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3590,246 +3851,6 @@
       </c>
       <c r="E75">
         <v>35.270000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2">
-        <v>116.366</v>
-      </c>
-      <c r="E2">
-        <v>39.8673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D3">
-        <v>116.17</v>
-      </c>
-      <c r="E3">
-        <v>40.286499999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4">
-        <v>116.434</v>
-      </c>
-      <c r="E4">
-        <v>39.952199999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5">
-        <v>116.434</v>
-      </c>
-      <c r="E5">
-        <v>39.874499999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D6">
-        <v>116.473</v>
-      </c>
-      <c r="E6">
-        <v>39.971600000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>116.361</v>
-      </c>
-      <c r="E7">
-        <v>39.942500000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8">
-        <v>116.315</v>
-      </c>
-      <c r="E8">
-        <v>39.993400000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>116.72</v>
-      </c>
-      <c r="E9">
-        <v>40.143799999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10">
-        <v>116.64400000000001</v>
-      </c>
-      <c r="E10">
-        <v>40.393700000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11">
-        <v>116.23</v>
-      </c>
-      <c r="E11">
-        <v>40.1952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D12">
-        <v>116.407</v>
-      </c>
-      <c r="E12">
-        <v>40.003100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13">
-        <v>116.22499999999999</v>
-      </c>
-      <c r="E13">
-        <v>39.927900000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3864,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:E15"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/坐标/监测站坐标.xlsx
+++ b/坐标/监测站坐标.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\毕业论文程序\MODIS\坐标\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\毕业论文程序\MODIS\坐标\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EECE49-969D-4B4F-B936-C5C46D094195}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15264" windowHeight="5796" tabRatio="500"/>
+    <workbookView xWindow="2904" yWindow="2928" windowWidth="17280" windowHeight="8964" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="样例" sheetId="7" r:id="rId1"/>
-    <sheet name="北京" sheetId="2" r:id="rId2"/>
-    <sheet name="河北" sheetId="4" r:id="rId3"/>
-    <sheet name="山东" sheetId="5" r:id="rId4"/>
-    <sheet name="天津" sheetId="3" r:id="rId5"/>
-    <sheet name="汇总" sheetId="6" r:id="rId6"/>
+    <sheet name="北京2013" sheetId="8" r:id="rId2"/>
+    <sheet name="北京" sheetId="2" r:id="rId3"/>
+    <sheet name="河北" sheetId="4" r:id="rId4"/>
+    <sheet name="山东" sheetId="5" r:id="rId5"/>
+    <sheet name="天津" sheetId="3" r:id="rId6"/>
+    <sheet name="汇总" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="332">
   <si>
     <t>监测点编码</t>
   </si>
@@ -1002,13 +1004,37 @@
   </si>
   <si>
     <t>团泊洼</t>
+  </si>
+  <si>
+    <t>万柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怀柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测点编码(原始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监测点名称(原始)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1018,6 +1044,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1044,8 +1078,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1320,10 +1355,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -1393,11 +1428,334 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB829D10-7422-4342-8968-51A6D14C7E1E}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2">
+        <v>116.366</v>
+      </c>
+      <c r="G2">
+        <v>39.8673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3">
+        <v>116.17</v>
+      </c>
+      <c r="G3">
+        <v>40.286499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4">
+        <v>116.434</v>
+      </c>
+      <c r="G4">
+        <v>39.952199999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5">
+        <v>116.434</v>
+      </c>
+      <c r="G5">
+        <v>39.874499999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6">
+        <v>116.473</v>
+      </c>
+      <c r="G6">
+        <v>39.971600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7">
+        <v>116.361</v>
+      </c>
+      <c r="G7">
+        <v>39.942500000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8">
+        <v>116.315</v>
+      </c>
+      <c r="G8">
+        <v>39.993400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9">
+        <v>116.72</v>
+      </c>
+      <c r="G9">
+        <v>40.143799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F10">
+        <v>116.64400000000001</v>
+      </c>
+      <c r="G10">
+        <v>40.393700000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11">
+        <v>116.23</v>
+      </c>
+      <c r="G11">
+        <v>40.1952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12">
+        <v>116.407</v>
+      </c>
+      <c r="G12">
+        <v>40.003100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13">
+        <v>116.22499999999999</v>
+      </c>
+      <c r="G13">
+        <v>39.927900000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1634,8 +1992,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -2565,8 +2923,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
@@ -3859,8 +4217,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4133,12 +4491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6750,6 +7108,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>